--- a/IA_2324_GroupEvaluation_TP4_Group7.xlsx
+++ b/IA_2324_GroupEvaluation_TP4_Group7.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07350D36-2EB1-455E-BD6B-88B29D1CF1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF586004-9F68-4312-AE35-2A8EC2006E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12186" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group</t>
   </si>
@@ -29,12 +40,6 @@
   </si>
   <si>
     <t>Student</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Task the student participated</t>
   </si>
   <si>
     <r>
@@ -59,10 +64,25 @@
     <t>Guilherme Magalhães</t>
   </si>
   <si>
-    <t>- Simulação de partidas IA x IA                                  - Pesquisa e procura de fontes</t>
-  </si>
-  <si>
     <t>Robert     Gleison</t>
+  </si>
+  <si>
+    <t>Sophia       Cheto</t>
+  </si>
+  <si>
+    <t>- Elaboração da interface gráfica                  -  Implementação dos                                     algoritmos de IA                                                  - Análise crítica dos algoritmos                                          - Narração do vídeo de apresentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Elaboração da interface gráfica                               - Implementação dos                                      algoritmos de IA                                                                          - Análise crítica dos algoritmos                     - Narração do vídeo de apresentação                                                -  Preparação de slides                                            </t>
+  </si>
+  <si>
+    <t>- Simulação de partidas IA x IA                                  - Pesquisa e procura de teorias                         - Narração do vídeo de apresentação</t>
+  </si>
+  <si>
+    <t>Task the student               participated</t>
+  </si>
+  <si>
+    <t>Não participou ativamente do desenvolvimento       do jogo e dos algoritmos</t>
   </si>
 </sst>
 </file>
@@ -129,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,7 +167,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:H9"/>
+  <dimension ref="D3:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -442,7 +467,7 @@
     <col min="7" max="7" width="41.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" ht="18" x14ac:dyDescent="0.6">
+    <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.6">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -450,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="4:8" ht="18" x14ac:dyDescent="0.6">
+    <row r="4" spans="4:7" ht="18" x14ac:dyDescent="0.6">
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -458,45 +483,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="E7" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="85.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="4:8" ht="54" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="4:8" ht="54" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="4:8" ht="54" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="4:7" ht="106" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
   </sheetData>

--- a/IA_2324_GroupEvaluation_TP4_Group7.xlsx
+++ b/IA_2324_GroupEvaluation_TP4_Group7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF586004-9F68-4312-AE35-2A8EC2006E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80455DFE-34BE-46AE-AF23-0D2FCA6D4B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12186" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,19 +70,19 @@
     <t>Sophia       Cheto</t>
   </si>
   <si>
-    <t>- Elaboração da interface gráfica                  -  Implementação dos                                     algoritmos de IA                                                  - Análise crítica dos algoritmos                                          - Narração do vídeo de apresentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Elaboração da interface gráfica                               - Implementação dos                                      algoritmos de IA                                                                          - Análise crítica dos algoritmos                     - Narração do vídeo de apresentação                                                -  Preparação de slides                                            </t>
-  </si>
-  <si>
-    <t>- Simulação de partidas IA x IA                                  - Pesquisa e procura de teorias                         - Narração do vídeo de apresentação</t>
-  </si>
-  <si>
     <t>Task the student               participated</t>
   </si>
   <si>
-    <t>Não participou ativamente do desenvolvimento       do jogo e dos algoritmos</t>
+    <t>- Simulação de partidas IA x IA                                  - Pesquisa de referências bibliográficas                         - Narração do vídeo de apresentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Elaboração da interface gráfica                               - Implementação dos                                      algoritmos de IA                                                                          - Análise crítica dos algoritmos em notebook/relatório                                                             - Narração do vídeo de apresentação                                                -  Preparação de slides                                            </t>
+  </si>
+  <si>
+    <t>- Elaboração da interface gráfica                  -  Implementação dos                                     algoritmos de IA                                                  - Análise crítica dos algoritmos em notebook/relatório                                                                                                  - Narração do vídeo de apresentação</t>
+  </si>
+  <si>
+    <t>Ficou inativo durante a maior parte do projeto: não participou do desenvolvimento                        do jogo e dos algoritmos, nem da            elaboração do notebook</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -464,7 +464,7 @@
     <col min="4" max="4" width="12.703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.703125" customWidth="1"/>
     <col min="6" max="6" width="32.5859375" customWidth="1"/>
-    <col min="7" max="7" width="41.29296875" customWidth="1"/>
+    <col min="7" max="7" width="39.05859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.6">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="4:7" ht="71" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
@@ -505,13 +505,13 @@
         <v>0.15</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="85.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="4:7" ht="97.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
@@ -519,11 +519,11 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="4:7" ht="106" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="4:7" ht="114.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1"/>
     </row>
